--- a/Planilhas/Planilha_Bubble_FINAL.xlsx
+++ b/Planilhas/Planilha_Bubble_FINAL.xlsx
@@ -5,21 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1vito\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eefc3ad8f0c71aca/Documentos/UNIOESTE/4-Ano/PAA/PAA_WVG/Planilhas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CACCAE-F513-4BDA-A4F5-264E1AC4240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{18CACCAE-F513-4BDA-A4F5-264E1AC4240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{117678AA-CF79-4F5C-93E6-604701F8A2E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,6 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,10 +83,11 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -117,9 +133,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,22 +424,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,42 +453,60 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.20912</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.20391000000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>0.21016000000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.20946999999999999</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>200</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.20496</v>
       </c>
       <c r="C3" s="1">
         <v>1.0045999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.32943</v>
       </c>
       <c r="E3" s="1">
         <v>0.95920000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>500</v>
       </c>
@@ -471,24 +514,31 @@
         <v>0.96319999999999995</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.65552999999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>0.81789999999999996</v>
       </c>
       <c r="E4" s="1">
         <v>1.1091</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>2.7378</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1.0938000000000001</v>
       </c>
       <c r="D5" s="1">
         <v>2.0912000000000002</v>
@@ -496,8 +546,15 @@
       <c r="E5" s="1">
         <v>1.9991000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -513,8 +570,15 @@
       <c r="E6" s="1">
         <v>22.982600000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5000</v>
       </c>
@@ -530,8 +594,15 @@
       <c r="E7" s="1">
         <v>36.008699999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7500</v>
       </c>
@@ -547,8 +618,15 @@
       <c r="E8" s="1">
         <v>65.997600000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>10000</v>
       </c>
@@ -561,11 +639,18 @@
       <c r="D9" s="1">
         <v>156.86799999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>246.624</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>15000</v>
       </c>
@@ -581,8 +666,15 @@
       <c r="E10" s="1">
         <v>1287.1099999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>30000</v>
       </c>
@@ -598,8 +690,15 @@
       <c r="E11" s="1">
         <v>1286.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>50000</v>
       </c>
@@ -615,8 +714,15 @@
       <c r="E12" s="1">
         <v>3997.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>75000</v>
       </c>
@@ -632,8 +738,15 @@
       <c r="E13" s="1">
         <v>7625.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>100000</v>
       </c>
@@ -649,8 +762,15 @@
       <c r="E14" s="1">
         <v>23057.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>200000</v>
       </c>
@@ -666,8 +786,15 @@
       <c r="E15" s="1">
         <v>233841</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>500000</v>
       </c>
@@ -683,8 +810,15 @@
       <c r="E16" s="1">
         <v>362638</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>750000</v>
       </c>
@@ -700,8 +834,15 @@
       <c r="E17" s="1">
         <v>813461</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1000000</v>
       </c>
@@ -717,8 +858,15 @@
       <c r="E18" s="1">
         <v>4584770</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1250000</v>
       </c>
@@ -734,8 +882,15 @@
       <c r="E19" s="1">
         <v>9001620</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1500000</v>
       </c>
@@ -751,8 +906,15 @@
       <c r="E20" s="1">
         <v>12789900</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2000000</v>
       </c>
@@ -771,6 +933,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -782,16 +945,16 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -806,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -823,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -840,7 +1003,7 @@
         <v>0.95920000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>500</v>
       </c>
@@ -857,7 +1020,7 @@
         <v>1.1091</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -874,7 +1037,7 @@
         <v>1.9991000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2000</v>
       </c>
@@ -891,7 +1054,7 @@
         <v>22.982600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5000</v>
       </c>
@@ -908,7 +1071,7 @@
         <v>36.008699999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7500</v>
       </c>
@@ -925,7 +1088,7 @@
         <v>65.997600000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>10000</v>
       </c>
@@ -942,7 +1105,7 @@
         <v>246.624</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>15000</v>
       </c>
@@ -959,7 +1122,7 @@
         <v>1287.1099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>30000</v>
       </c>
@@ -976,7 +1139,7 @@
         <v>1286.03</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>50000</v>
       </c>
@@ -993,7 +1156,7 @@
         <v>3997.25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>75000</v>
       </c>
@@ -1010,7 +1173,7 @@
         <v>7625.88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>100000</v>
       </c>
@@ -1027,7 +1190,7 @@
         <v>65078.426899999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>200000</v>
       </c>
@@ -1044,7 +1207,7 @@
         <v>233841</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>500000</v>
       </c>
@@ -1061,7 +1224,7 @@
         <v>362638</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>750000</v>
       </c>
@@ -1078,7 +1241,7 @@
         <v>813461</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1000000</v>
       </c>
@@ -1095,7 +1258,7 @@
         <v>1313907.024</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1250000</v>
       </c>
@@ -1112,7 +1275,7 @@
         <v>2063796.7990000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1500000</v>
       </c>
@@ -1129,7 +1292,7 @@
         <v>3092110.44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2000000</v>
       </c>
